--- a/2023/israel_ligat-ha-al_2023-2024.xlsx
+++ b/2023/israel_ligat-ha-al_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2389,6 +2389,466 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>45192.70833333334</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Hapoel Petah Tikva</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>H. Beer Sheva</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>21/09/2023 03:42</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>21/09/2023 03:42</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>21/09/2023 03:42</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:52</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-petah-tikva-h-beer-sheva/8jktLzDi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>45192.77083333334</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Hapoel Hadera</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Hapoel Haifa</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>18/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:23</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>18/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:28</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>18/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:23</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-hadera-hapoel-haifa/l6YTH4oU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>45192.78125</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Hapoel Jerusalem</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Netanya</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>17/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:44</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>17/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:37</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>17/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:44</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-jerusalem-netanya/2DlpKfSc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>45192.78125</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>SC Ashdod</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Maccabi Petah Tikva</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>20/09/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:43</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>20/09/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:42</t>
+        </is>
+      </c>
+      <c r="R25" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>20/09/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:43</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/sc-ashdod-maccabi-petah-tikva/fqZPIpWN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>45192.79166666666</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Maccabi Bnei Raina</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>2</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Beitar Jerusalem</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>18/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:56</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>18/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:56</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>18/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T26" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:56</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/maccabi-bnei-raina-beitar-jerusalem/jFKeDOgo/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/israel_ligat-ha-al_2023-2024.xlsx
+++ b/2023/israel_ligat-ha-al_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V26"/>
+  <dimension ref="A1:V27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2849,6 +2849,98 @@
         </is>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>45195.8125</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Hapoel Tel Aviv</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Maccabi Tel Aviv</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>5</v>
+      </c>
+      <c r="J27" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>19/09/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>26/09/2023 19:27</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>19/09/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>26/09/2023 19:27</t>
+        </is>
+      </c>
+      <c r="R27" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>19/09/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T27" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>26/09/2023 19:23</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-tel-aviv-maccabi-tel-aviv/UajxMGco/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/israel_ligat-ha-al_2023-2024.xlsx
+++ b/2023/israel_ligat-ha-al_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V27"/>
+  <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>SC Ashdod</t>
+          <t>Maccabi Bnei Raina</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>2.03</v>
+        <v>1.26</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,15 +1884,15 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.39</v>
+        <v>1.22</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>17/09/2023 18:40</t>
+          <t>17/09/2023 18:39</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.44</v>
+        <v>5.83</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1900,15 +1900,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.3</v>
+        <v>6.43</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>17/09/2023 18:40</t>
+          <t>17/09/2023 18:39</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>3.7</v>
+        <v>10.6</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -1916,16 +1916,16 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>3.1</v>
+        <v>12.63</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>17/09/2023 18:40</t>
+          <t>17/09/2023 18:39</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-haifa-sc-ashdod/ttVLJQGH/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/maccabi-tel-aviv-maccabi-bnei-raina/KQtDLnn5/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Maccabi Bnei Raina</t>
+          <t>SC Ashdod</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.26</v>
+        <v>2.03</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.22</v>
+        <v>2.39</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>17/09/2023 18:39</t>
+          <t>17/09/2023 18:40</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>5.83</v>
+        <v>3.44</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>6.43</v>
+        <v>3.3</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>17/09/2023 18:39</t>
+          <t>17/09/2023 18:40</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>10.6</v>
+        <v>3.7</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>12.63</v>
+        <v>3.1</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>17/09/2023 18:39</t>
+          <t>17/09/2023 18:40</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/maccabi-tel-aviv-maccabi-bnei-raina/KQtDLnn5/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-haifa-sc-ashdod/ttVLJQGH/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Maccabi Petah Tikva</t>
+          <t>Netanya</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
+          <t>Hapoel Petah Tikva</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>4.92</v>
+        <v>1.47</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>5.65</v>
+        <v>1.7</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>17/09/2023 18:59</t>
+          <t>17/09/2023 18:55</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.8</v>
+        <v>4.21</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>4.27</v>
+        <v>3.92</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>17/09/2023 18:59</t>
+          <t>17/09/2023 18:55</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>1.69</v>
+        <v>6.12</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>1.56</v>
+        <v>4.85</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>17/09/2023 18:50</t>
+          <t>17/09/2023 18:55</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/maccabi-petah-tikva-maccabi-haifa/jXZdPUnt/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/netanya-hapoel-petah-tikva/naT5N8Hh/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Netanya</t>
+          <t>Maccabi Petah Tikva</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Hapoel Petah Tikva</t>
+          <t>Maccabi Haifa</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>1.47</v>
+        <v>4.92</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.7</v>
+        <v>5.65</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>17/09/2023 18:55</t>
+          <t>17/09/2023 18:59</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>4.21</v>
+        <v>3.8</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.92</v>
+        <v>4.27</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>17/09/2023 18:55</t>
+          <t>17/09/2023 18:59</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>6.12</v>
+        <v>1.69</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>4.85</v>
+        <v>1.56</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>17/09/2023 18:55</t>
+          <t>17/09/2023 18:50</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/netanya-hapoel-petah-tikva/naT5N8Hh/</t>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/maccabi-petah-tikva-maccabi-haifa/jXZdPUnt/</t>
         </is>
       </c>
     </row>
@@ -2938,6 +2938,98 @@
       <c r="V27" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/israel/ligat-ha-al/hapoel-tel-aviv-maccabi-tel-aviv/UajxMGco/</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>israel</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>ligat-ha-al</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>45196.79166666666</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Maccabi Haifa</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Sakhnin</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>20/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:54</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>20/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:54</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>20/09/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T28" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:54</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/israel/ligat-ha-al/maccabi-haifa-sakhnin/EmhlJEs4/</t>
         </is>
       </c>
     </row>
